--- a/output/ursus/2023/sheets/year_2023.xlsx
+++ b/output/ursus/2023/sheets/year_2023.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>57.45161290322581</v>
+        <v>57.48817248910083</v>
       </c>
       <c r="C2" t="n">
-        <v>50.87741935483871</v>
+        <v>51.01328035171659</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>57.53214285714286</v>
+        <v>57.56549616593971</v>
       </c>
       <c r="C3" t="n">
-        <v>50.64642857142858</v>
+        <v>50.91340988026447</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>57.87096774193549</v>
+        <v>58.01304473077032</v>
       </c>
       <c r="C4" t="n">
-        <v>51.39032258064516</v>
+        <v>51.5357667161846</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>58.48999999999999</v>
+        <v>58.49905406251982</v>
       </c>
       <c r="C5" t="n">
-        <v>49.56333333333334</v>
+        <v>51.38301417920275</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>58.44516129032259</v>
+        <v>58.45509173093066</v>
       </c>
       <c r="C6" t="n">
-        <v>51.53548387096775</v>
+        <v>51.76252991730389</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>58.40666666666666</v>
+        <v>58.56016500167034</v>
       </c>
       <c r="C7" t="n">
-        <v>52</v>
+        <v>52.13899829777175</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>58.36774193548387</v>
+        <v>58.37466908555325</v>
       </c>
       <c r="C8" t="n">
-        <v>51.51290322580645</v>
+        <v>51.63274472665328</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>56.47741935483872</v>
+        <v>58.3759219121728</v>
       </c>
       <c r="C9" t="n">
-        <v>51.93870967741935</v>
+        <v>51.99268406229761</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>49.98999999999999</v>
+        <v>58.44249361344186</v>
       </c>
       <c r="C10" t="n">
-        <v>47.04999999999999</v>
+        <v>52.09784588854455</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>58.88709677419355</v>
+        <v>58.90590230574559</v>
       </c>
       <c r="C11" t="n">
-        <v>51.79677419354838</v>
+        <v>52.008040825487</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>58.54</v>
+        <v>58.56540459811247</v>
       </c>
       <c r="C12" t="n">
-        <v>51.65000000000001</v>
+        <v>51.93277444392983</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>57.90967741935486</v>
+        <v>57.97372638337364</v>
       </c>
       <c r="C13" t="n">
-        <v>50.74193548387097</v>
+        <v>51.17302444821024</v>
       </c>
     </row>
   </sheetData>
